--- a/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
+++ b/understanding_and_utilizing_test_design_techniques/13_状態遷移表(リセットボタン・送信ボタン).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omachi/projects/DIVIC/test_engineer_course_exam/understanding_and_utilizing_test_design_techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E120CB5-A87F-D247-9FE7-4643693ADFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A157454-92A7-B44B-95B4-D81C79A4D1B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31120" yWindow="1240" windowWidth="27900" windowHeight="16400" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
+    <workbookView xWindow="31120" yWindow="1240" windowWidth="27900" windowHeight="16400" activeTab="1" xr2:uid="{A34602B1-1F4A-1244-B27B-274167FC4BCF}"/>
   </bookViews>
   <sheets>
     <sheet name="状態遷移表作成課題" sheetId="1" r:id="rId1"/>
+    <sheet name="サンプル" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -634,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED0D25D-6AF1-1842-B6E8-916746181AEE}">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -791,4 +792,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDE4D6A-3CA7-FB4A-8895-24BB7A97B381}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>